--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2562622.380119698</v>
+        <v>2666802.01457077</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.2714515328003</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.80199454068629</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>78.53455727340416</v>
       </c>
       <c r="G4" t="n">
-        <v>97.54448884450755</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>377.6405177304904</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.07009764855935</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>98.50090852733726</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>15.72846594283963</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>89.0410811142913</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.340149185704</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.5900300319702</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449512199</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>72.23766645968814</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>178.9060413124614</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3642529779086</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>27.6842674365317</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>112.7606860320014</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.04391179877741</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2893995353463</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>10.74993283584344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274587</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>35.01782305658469</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>27.6842674365317</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.7063133373723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>4.444394634328862</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4183,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>61.6215214068367</v>
+        <v>55.49215756129669</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2747.447050436851</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686071</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064747</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080118</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.8449442241107</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C4" t="n">
-        <v>459.8449442241107</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D4" t="n">
-        <v>459.8449442241107</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E4" t="n">
-        <v>311.9318506417176</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="F4" t="n">
-        <v>165.0419031438072</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046014</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676408</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>680.6375233676408</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>459.8449442241107</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.178203944121</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.215687003709</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>900.949988396959</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>900.949988396959</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>489.9640836073515</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810555</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008243</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.710820256795</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>333.710820256795</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>333.710820256795</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>333.710820256795</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>333.710820256795</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>166.007983631514</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.710820256795</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3235.66533563514</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3029.687588019362</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3029.687588019362</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2698.624700675791</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2698.624700675791</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2325.158942414711</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>1935.019610438899</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,13 +4883,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>957.646215064373</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>957.646215064373</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770307</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>486.4214942667304</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072706</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>704.6685841991614</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1796.747907467618</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.063419261731</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.64624922477</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326753</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832229</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>4435.461999481584</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356185</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267663</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1433.359422267663</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>1212.566843124133</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>555.8158034133954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3206.505799599952</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C34" t="n">
-        <v>3037.569616672045</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D34" t="n">
-        <v>2887.452977259709</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E34" t="n">
-        <v>2739.539883677316</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
         <v>2337.686731866304</v>
@@ -6883,25 +6885,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4512.872412663663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4293.270947686605</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>4293.270947686605</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>3749.169289443757</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y34" t="n">
-        <v>3388.154264430192</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7256,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2110.486554626058</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1821.411327970255</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1566.726839764368</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1277.309669727408</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7685,13 +7687,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.4644740681603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>465.5282911402533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2317.673418815656</v>
+        <v>2323.864695427313</v>
       </c>
       <c r="T46" t="n">
-        <v>2098.071953838597</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="U46" t="n">
-        <v>1808.996727182795</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.312238976908</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W46" t="n">
-        <v>1264.895068939947</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X46" t="n">
-        <v>1036.90551804193</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.1129388984</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>143.8269525734192</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>74.19629618688103</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>107.2784330767828</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>71.22040037418617</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>152.1477127454056</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>67.07129414993571</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.5407415533174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.54258064659095</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.02465210191957</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6711151870878</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.22040037418594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>258.8387309000593</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>119.4047645948079</v>
+        <v>125.5341284403479</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520055</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
@@ -26338,22 +26340,22 @@
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678108</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10557.0882867812</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26439,10 +26441,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678129</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678127</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26457,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556916</v>
+        <v>-869589.3934556918</v>
       </c>
       <c r="C6" t="n">
         <v>459155.3522719007</v>
       </c>
       <c r="D6" t="n">
-        <v>459155.3522719007</v>
+        <v>459155.3522719009</v>
       </c>
       <c r="E6" t="n">
-        <v>208625.1998339616</v>
+        <v>208625.199833962</v>
       </c>
       <c r="F6" t="n">
         <v>534037.661641317</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.6616413164</v>
+        <v>534037.6616413166</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413168</v>
+        <v>534037.6616413167</v>
       </c>
       <c r="I6" t="n">
         <v>534037.6616413166</v>
@@ -26549,19 +26551,19 @@
         <v>534037.6616413166</v>
       </c>
       <c r="L6" t="n">
-        <v>534037.6616413167</v>
+        <v>534037.6616413165</v>
       </c>
       <c r="M6" t="n">
         <v>448982.6337058049</v>
       </c>
       <c r="N6" t="n">
+        <v>534037.661641317</v>
+      </c>
+      <c r="O6" t="n">
+        <v>534037.6616413167</v>
+      </c>
+      <c r="P6" t="n">
         <v>534037.6616413168</v>
-      </c>
-      <c r="O6" t="n">
-        <v>534037.6616413166</v>
-      </c>
-      <c r="P6" t="n">
-        <v>534037.6616413171</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.48080693733459</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.4359441153673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>66.88649074952708</v>
       </c>
       <c r="G4" t="n">
-        <v>68.48131941452067</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>33.28120792296306</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>358.1678410074942</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>46.25410638698352</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>236.4091773809884</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.14668067388453</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>85.89778947034955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.11962535706695</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="29">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963281</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>742.935485982477</v>
+        <v>501.1621040024318</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,7 +32791,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32800,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>381.2855185329316</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565753</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33265,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q30" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35577,16 +35579,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991437</v>
+        <v>369.8203919190985</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36448,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121309</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666802.01457077</v>
+        <v>2662789.404556777</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>259.2714515328003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>78.53455727340416</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>248.6564574003641</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>61.31988685654841</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.07009764855935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>15.72846594283963</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>89.0410811142913</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>142.5900300319702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.594095449512199</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>72.23766645968814</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>74.53917159609172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.3642529779086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.6842674365317</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.7606860320014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>130.3963959210117</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>81.278598673301</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>109.8058856274587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>35.01782305658469</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.49215756129669</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2747.447050436851</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2394.678395166736</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995014</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6594280995014</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>313.5427886871656</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>313.5427886871656</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297411</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.124251906171</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1408.124251906171</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.134701008154</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.419770374778</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3235.66533563514</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3029.687588019362</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3029.687588019362</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2698.624700675791</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2698.624700675791</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.158942414711</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.019610438899</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>957.646215064373</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.646215064373</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770307</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491236</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>634.3345878491236</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>486.4214942667304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429807</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648818</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750801</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072706</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5302,22 +5302,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>854.7852236114971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>704.6685841991614</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.73869457197</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644064</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231728</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.38715940221</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
         <v>577.3880777468471</v>
@@ -6314,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263525</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356185</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232828</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408898</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578598</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6390,10 +6390,10 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.46108051051</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304623</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267663</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.359422267663</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.566843124133</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138411</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2418223735984</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3287287912053</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6788,16 +6788,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3118.73869457197</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644064</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>317.6280888252697</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4512.872412663663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4293.270947686605</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4293.270947686605</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>4038.586459480718</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3749.169289443757</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3521.17973854574</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>3300.38715940221</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,31 +6952,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7028,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>986.1256051221279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>817.189422194221</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>667.0727827818853</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.774069952368</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1405.737459147272</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1177.747908249255</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>956.9553291057244</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
         <v>929.7309773356195</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2323.864695427313</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2104.263230450254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2104.263230450254</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.8269525734192</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>74.19629618688103</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>60.88156453658485</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.22040037418617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.1477127454056</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.07129414993571</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>15.02465210191957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.24553961896784</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>71.22040037418594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>111.4161395899845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5341284403479</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
@@ -26352,10 +26352,10 @@
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678108</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556918</v>
+        <v>-869589.3934556915</v>
       </c>
       <c r="C6" t="n">
+        <v>459155.352271901</v>
+      </c>
+      <c r="D6" t="n">
         <v>459155.3522719007</v>
       </c>
-      <c r="D6" t="n">
-        <v>459155.3522719009</v>
-      </c>
       <c r="E6" t="n">
-        <v>208625.199833962</v>
+        <v>208277.8205796046</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413167</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="J6" t="n">
-        <v>316506.4592440393</v>
+        <v>316159.0799896822</v>
       </c>
       <c r="K6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="L6" t="n">
-        <v>534037.6616413165</v>
+        <v>533690.28238696</v>
       </c>
       <c r="M6" t="n">
-        <v>448982.6337058049</v>
+        <v>448635.2544514479</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869599</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.6616413167</v>
+        <v>533690.2823869599</v>
       </c>
       <c r="P6" t="n">
-        <v>534037.6616413168</v>
+        <v>533690.2823869599</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,28 +26801,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>103.3587393628226</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.48080693733459</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.88649074952708</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>37.86654093622693</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>287.9210818608646</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.1678410074942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>236.4091773809884</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.14668067388453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>83.11962535706695</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>501.1621040024318</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32314,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>369.8203919190985</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2662789.404556777</v>
+        <v>2664549.934859563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.3751023006579</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>107.0120291964077</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>248.6564574003641</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>93.45832099395179</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>61.31988685654841</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>51.04913877510094</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.214715148533</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298078</v>
       </c>
     </row>
     <row r="17">
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.696569780335</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>120.1447214650597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>122.4770547252869</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>81.278598673301</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.017717176686</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.611463851887</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.62191295387</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2362.804761797675</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>125.022403822903</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>118.0769030736995</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5053,40 +5053,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -5992,46 +5992,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>886.2490747427084</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>736.1324353303727</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>588.2193417479796</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>441.3293942500692</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6490,13 +6490,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4311299055732</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5180363231801</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6280888252697</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4949402405041</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695322</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.88156453658485</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.0470835669819</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>84.24553961896784</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
@@ -26334,28 +26334,28 @@
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26444,16 +26444,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556915</v>
+        <v>-869589.3934556919</v>
       </c>
       <c r="C6" t="n">
-        <v>459155.352271901</v>
+        <v>459155.3522719007</v>
       </c>
       <c r="D6" t="n">
-        <v>459155.3522719007</v>
+        <v>459155.3522719009</v>
       </c>
       <c r="E6" t="n">
-        <v>208277.8205796046</v>
+        <v>208590.4619085257</v>
       </c>
       <c r="F6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158813</v>
       </c>
       <c r="G6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="H6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="I6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158813</v>
       </c>
       <c r="J6" t="n">
-        <v>316159.0799896822</v>
+        <v>316471.7213186037</v>
       </c>
       <c r="K6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="L6" t="n">
-        <v>533690.28238696</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="M6" t="n">
-        <v>448635.2544514479</v>
+        <v>448947.8957803693</v>
       </c>
       <c r="N6" t="n">
-        <v>533690.2823869599</v>
+        <v>534002.9237158812</v>
       </c>
       <c r="O6" t="n">
-        <v>533690.2823869599</v>
+        <v>534002.9237158812</v>
       </c>
       <c r="P6" t="n">
-        <v>533690.2823869599</v>
+        <v>534002.9237158812</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.3587393628226</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>279.2259094596459</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.86654093622693</v>
+        <v>94.35543628911128</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>261.2247206267311</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>287.9210818608646</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>359.8725868783525</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.605136968169532e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043726</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236508</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34210,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066284</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
